--- a/OrdersPointFighting.xlsx
+++ b/OrdersPointFighting.xlsx
@@ -1454,10 +1454,10 @@
     <t>Команда "ЦСКА" Гимназия №1409</t>
   </si>
   <si>
-    <t>поинтфайтинг</t>
-  </si>
-  <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>Поинтфайтинг</t>
   </si>
 </sst>
 </file>
@@ -2433,10 +2433,10 @@
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G14" s="71" t="s">
         <v>473</v>
-      </c>
-      <c r="G14" s="71" t="s">
-        <v>472</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>55</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>55</v>
@@ -2500,7 +2500,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>55</v>
@@ -2535,7 +2535,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>55</v>
@@ -2568,7 +2568,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>55</v>
@@ -2601,7 +2601,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>55</v>
@@ -2634,7 +2634,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>55</v>
@@ -2667,7 +2667,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>55</v>
@@ -2700,7 +2700,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>55</v>
@@ -2733,7 +2733,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>55</v>
@@ -2766,7 +2766,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>55</v>
@@ -2799,7 +2799,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>55</v>
@@ -2832,7 +2832,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>55</v>
@@ -2865,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>55</v>
@@ -2898,7 +2898,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>55</v>
@@ -2931,7 +2931,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>55</v>
@@ -2964,7 +2964,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>55</v>
@@ -2997,7 +2997,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>55</v>
@@ -3030,7 +3030,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>55</v>
@@ -3063,7 +3063,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>55</v>
@@ -3096,7 +3096,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>55</v>
@@ -3129,7 +3129,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>55</v>
@@ -3162,7 +3162,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>55</v>
@@ -3195,7 +3195,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>55</v>
@@ -3228,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>55</v>
@@ -3261,7 +3261,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>55</v>
@@ -4822,7 +4822,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>19</v>
@@ -4857,7 +4857,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>19</v>
@@ -4892,7 +4892,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>19</v>
@@ -4929,7 +4929,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>19</v>
@@ -4964,7 +4964,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>19</v>
@@ -4999,7 +4999,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>19</v>
@@ -5034,7 +5034,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>19</v>
@@ -5069,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>19</v>
@@ -5104,7 +5104,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>19</v>
@@ -5139,7 +5139,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>19</v>
@@ -5174,7 +5174,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>19</v>
@@ -5209,7 +5209,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>19</v>
@@ -5244,7 +5244,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>19</v>
@@ -5279,7 +5279,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>19</v>
@@ -5314,7 +5314,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>19</v>
@@ -5349,7 +5349,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>19</v>
@@ -5384,7 +5384,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>19</v>
@@ -5419,7 +5419,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>19</v>
@@ -5454,7 +5454,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="73" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H32" s="60" t="s">
         <v>19</v>
@@ -7104,7 +7104,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>456</v>
@@ -7139,7 +7139,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>456</v>
@@ -7174,7 +7174,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>456</v>
@@ -7211,7 +7211,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>456</v>
@@ -7246,7 +7246,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>456</v>
@@ -7281,7 +7281,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>456</v>
@@ -7316,7 +7316,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>456</v>
@@ -7351,7 +7351,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>456</v>
@@ -7386,7 +7386,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>456</v>
@@ -7421,7 +7421,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>456</v>
@@ -7456,7 +7456,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>456</v>
@@ -7491,7 +7491,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>456</v>
@@ -7526,7 +7526,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>456</v>
@@ -7561,7 +7561,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>456</v>
@@ -7596,7 +7596,7 @@
         <v>38</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>456</v>
@@ -7631,7 +7631,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>456</v>
@@ -7666,7 +7666,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>456</v>
@@ -7701,7 +7701,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>456</v>
@@ -7736,7 +7736,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>456</v>
@@ -7771,7 +7771,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="73" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>456</v>
@@ -9382,7 +9382,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>336</v>
@@ -9415,7 +9415,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>336</v>
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>336</v>
@@ -9483,7 +9483,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>336</v>
@@ -9516,7 +9516,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>336</v>
@@ -9549,7 +9549,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>336</v>
@@ -9582,7 +9582,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>336</v>
@@ -9615,7 +9615,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>336</v>
@@ -9648,7 +9648,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>336</v>
@@ -9681,7 +9681,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>336</v>
@@ -9714,7 +9714,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>336</v>
@@ -9747,7 +9747,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>336</v>
@@ -9780,7 +9780,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>336</v>
@@ -9813,7 +9813,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>336</v>
@@ -9846,7 +9846,7 @@
         <v>38</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>336</v>
@@ -9879,7 +9879,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>336</v>
@@ -9912,7 +9912,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>336</v>
@@ -9945,7 +9945,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>336</v>
@@ -9978,7 +9978,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>336</v>
@@ -10011,7 +10011,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>336</v>
@@ -10044,7 +10044,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>336</v>
@@ -10077,7 +10077,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>336</v>
@@ -10110,7 +10110,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>336</v>
@@ -10143,7 +10143,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>336</v>
@@ -10176,7 +10176,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>336</v>
@@ -10209,7 +10209,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>336</v>
@@ -10242,7 +10242,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>336</v>
@@ -10277,7 +10277,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>336</v>
@@ -10312,7 +10312,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>336</v>
@@ -10347,7 +10347,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>336</v>
@@ -10382,7 +10382,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>336</v>
@@ -10417,7 +10417,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>336</v>
@@ -10452,7 +10452,7 @@
         <v>18</v>
       </c>
       <c r="G46" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>336</v>
@@ -10487,7 +10487,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>336</v>
@@ -10522,7 +10522,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>336</v>
@@ -10557,7 +10557,7 @@
         <v>38</v>
       </c>
       <c r="G49" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>336</v>
@@ -10592,7 +10592,7 @@
         <v>38</v>
       </c>
       <c r="G50" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>336</v>
@@ -10627,7 +10627,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>336</v>
@@ -10662,7 +10662,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>336</v>
@@ -10697,7 +10697,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>336</v>
@@ -10732,7 +10732,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>336</v>
@@ -10767,7 +10767,7 @@
         <v>18</v>
       </c>
       <c r="G55" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>336</v>
@@ -10802,7 +10802,7 @@
         <v>18</v>
       </c>
       <c r="G56" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>336</v>
@@ -10837,7 +10837,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>336</v>
@@ -10872,7 +10872,7 @@
         <v>18</v>
       </c>
       <c r="G58" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>336</v>
@@ -10907,7 +10907,7 @@
         <v>18</v>
       </c>
       <c r="G59" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>336</v>
@@ -10942,7 +10942,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>336</v>
@@ -10977,7 +10977,7 @@
         <v>18</v>
       </c>
       <c r="G61" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>336</v>
@@ -11012,7 +11012,7 @@
         <v>18</v>
       </c>
       <c r="G62" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>336</v>
@@ -11047,7 +11047,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>336</v>
@@ -11082,7 +11082,7 @@
         <v>18</v>
       </c>
       <c r="G64" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>336</v>
@@ -11117,7 +11117,7 @@
         <v>18</v>
       </c>
       <c r="G65" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>336</v>
@@ -11152,7 +11152,7 @@
         <v>18</v>
       </c>
       <c r="G66" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>336</v>
@@ -11187,7 +11187,7 @@
         <v>18</v>
       </c>
       <c r="G67" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>336</v>
@@ -11222,7 +11222,7 @@
         <v>18</v>
       </c>
       <c r="G68" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>336</v>
@@ -11257,7 +11257,7 @@
         <v>18</v>
       </c>
       <c r="G69" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>336</v>
@@ -11292,7 +11292,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>336</v>
@@ -11327,7 +11327,7 @@
         <v>18</v>
       </c>
       <c r="G71" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>336</v>
@@ -11362,7 +11362,7 @@
         <v>18</v>
       </c>
       <c r="G72" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>336</v>
@@ -11397,7 +11397,7 @@
         <v>18</v>
       </c>
       <c r="G73" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>336</v>
@@ -11432,7 +11432,7 @@
         <v>18</v>
       </c>
       <c r="G74" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>336</v>
@@ -11467,7 +11467,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>336</v>
@@ -11502,7 +11502,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>336</v>
@@ -11537,7 +11537,7 @@
         <v>18</v>
       </c>
       <c r="G77" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>336</v>
@@ -11572,7 +11572,7 @@
         <v>18</v>
       </c>
       <c r="G78" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>336</v>
@@ -11607,7 +11607,7 @@
         <v>18</v>
       </c>
       <c r="G79" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>336</v>
@@ -11642,7 +11642,7 @@
         <v>18</v>
       </c>
       <c r="G80" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>336</v>
@@ -11677,7 +11677,7 @@
         <v>18</v>
       </c>
       <c r="G81" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>336</v>
@@ -11712,7 +11712,7 @@
         <v>18</v>
       </c>
       <c r="G82" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>336</v>
@@ -11747,7 +11747,7 @@
         <v>18</v>
       </c>
       <c r="G83" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>336</v>
@@ -11782,7 +11782,7 @@
         <v>18</v>
       </c>
       <c r="G84" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>336</v>
@@ -11817,7 +11817,7 @@
         <v>18</v>
       </c>
       <c r="G85" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>336</v>
@@ -11852,7 +11852,7 @@
         <v>18</v>
       </c>
       <c r="G86" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>336</v>
@@ -11887,7 +11887,7 @@
         <v>18</v>
       </c>
       <c r="G87" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>336</v>
@@ -11922,7 +11922,7 @@
         <v>38</v>
       </c>
       <c r="G88" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>336</v>
@@ -11957,7 +11957,7 @@
         <v>38</v>
       </c>
       <c r="G89" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>336</v>
@@ -11992,7 +11992,7 @@
         <v>18</v>
       </c>
       <c r="G90" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>336</v>
@@ -12027,7 +12027,7 @@
         <v>18</v>
       </c>
       <c r="G91" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>336</v>
@@ -12062,7 +12062,7 @@
         <v>38</v>
       </c>
       <c r="G92" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>336</v>
@@ -12097,7 +12097,7 @@
         <v>38</v>
       </c>
       <c r="G93" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>336</v>
@@ -12132,7 +12132,7 @@
         <v>18</v>
       </c>
       <c r="G94" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>336</v>
@@ -12167,7 +12167,7 @@
         <v>18</v>
       </c>
       <c r="G95" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>336</v>
@@ -12202,7 +12202,7 @@
         <v>18</v>
       </c>
       <c r="G96" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>336</v>
@@ -12237,7 +12237,7 @@
         <v>18</v>
       </c>
       <c r="G97" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>336</v>
@@ -12272,7 +12272,7 @@
         <v>18</v>
       </c>
       <c r="G98" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>336</v>
@@ -12307,7 +12307,7 @@
         <v>18</v>
       </c>
       <c r="G99" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>336</v>
@@ -12342,7 +12342,7 @@
         <v>18</v>
       </c>
       <c r="G100" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>336</v>
@@ -12377,7 +12377,7 @@
         <v>18</v>
       </c>
       <c r="G101" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>336</v>
@@ -12412,7 +12412,7 @@
         <v>18</v>
       </c>
       <c r="G102" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>336</v>
@@ -12447,7 +12447,7 @@
         <v>18</v>
       </c>
       <c r="G103" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>336</v>
@@ -12482,7 +12482,7 @@
         <v>18</v>
       </c>
       <c r="G104" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>336</v>
@@ -12517,7 +12517,7 @@
         <v>38</v>
       </c>
       <c r="G105" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>336</v>
@@ -12552,7 +12552,7 @@
         <v>38</v>
       </c>
       <c r="G106" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>336</v>
@@ -12587,7 +12587,7 @@
         <v>18</v>
       </c>
       <c r="G107" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>336</v>
@@ -12622,7 +12622,7 @@
         <v>38</v>
       </c>
       <c r="G108" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>336</v>
@@ -12657,7 +12657,7 @@
         <v>38</v>
       </c>
       <c r="G109" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>336</v>
@@ -12692,7 +12692,7 @@
         <v>18</v>
       </c>
       <c r="G110" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>336</v>
@@ -12727,7 +12727,7 @@
         <v>18</v>
       </c>
       <c r="G111" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>336</v>
@@ -12762,7 +12762,7 @@
         <v>18</v>
       </c>
       <c r="G112" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>336</v>
@@ -12797,7 +12797,7 @@
         <v>18</v>
       </c>
       <c r="G113" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>336</v>
@@ -12832,7 +12832,7 @@
         <v>18</v>
       </c>
       <c r="G114" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>336</v>
@@ -12867,7 +12867,7 @@
         <v>18</v>
       </c>
       <c r="G115" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>336</v>
@@ -12902,7 +12902,7 @@
         <v>18</v>
       </c>
       <c r="G116" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>336</v>
@@ -12937,7 +12937,7 @@
         <v>18</v>
       </c>
       <c r="G117" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>336</v>
@@ -12972,7 +12972,7 @@
         <v>18</v>
       </c>
       <c r="G118" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>336</v>
@@ -13007,7 +13007,7 @@
         <v>18</v>
       </c>
       <c r="G119" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>336</v>
@@ -13042,7 +13042,7 @@
         <v>18</v>
       </c>
       <c r="G120" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>336</v>
@@ -13077,7 +13077,7 @@
         <v>18</v>
       </c>
       <c r="G121" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>336</v>
@@ -13112,7 +13112,7 @@
         <v>18</v>
       </c>
       <c r="G122" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>336</v>
@@ -13147,7 +13147,7 @@
         <v>18</v>
       </c>
       <c r="G123" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>336</v>
@@ -13182,7 +13182,7 @@
         <v>18</v>
       </c>
       <c r="G124" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>336</v>
@@ -13217,7 +13217,7 @@
         <v>18</v>
       </c>
       <c r="G125" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>336</v>
@@ -13252,7 +13252,7 @@
         <v>18</v>
       </c>
       <c r="G126" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>336</v>
@@ -13287,7 +13287,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>336</v>
@@ -13322,7 +13322,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>336</v>
@@ -13355,7 +13355,7 @@
         <v>38</v>
       </c>
       <c r="G129" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>336</v>
@@ -13388,7 +13388,7 @@
         <v>38</v>
       </c>
       <c r="G130" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>336</v>
@@ -13554,7 +13554,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>19</v>
@@ -13589,7 +13589,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>19</v>
@@ -13624,7 +13624,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>19</v>
@@ -13661,7 +13661,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>19</v>
@@ -13696,7 +13696,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>19</v>
@@ -13731,7 +13731,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="60" t="s">
         <v>19</v>
@@ -15550,7 +15550,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>102</v>
@@ -15579,7 +15579,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>102</v>
@@ -15608,7 +15608,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>102</v>
@@ -15639,7 +15639,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>102</v>
@@ -15668,7 +15668,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>102</v>
@@ -15697,7 +15697,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>102</v>
@@ -15726,7 +15726,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>102</v>
@@ -17530,7 +17530,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>19</v>
@@ -17565,7 +17565,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>19</v>
@@ -17600,7 +17600,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>19</v>
@@ -17637,7 +17637,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>19</v>
@@ -17672,7 +17672,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>19</v>
@@ -17707,7 +17707,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>19</v>
@@ -17742,7 +17742,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>19</v>
@@ -17777,7 +17777,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>19</v>
@@ -17812,7 +17812,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>19</v>
@@ -17847,7 +17847,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>19</v>
@@ -17882,7 +17882,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>19</v>
@@ -17917,7 +17917,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>19</v>
@@ -17952,7 +17952,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>19</v>
@@ -17987,7 +17987,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>19</v>
@@ -18022,7 +18022,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>19</v>
@@ -18057,7 +18057,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>19</v>
@@ -18092,7 +18092,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>19</v>
@@ -18127,7 +18127,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>19</v>
@@ -18162,7 +18162,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>19</v>
@@ -18197,7 +18197,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>19</v>
@@ -18232,7 +18232,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>19</v>
@@ -18267,7 +18267,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>19</v>
@@ -18302,7 +18302,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>19</v>
@@ -18337,7 +18337,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>19</v>
@@ -18372,7 +18372,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>19</v>
@@ -18407,7 +18407,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>19</v>
@@ -18442,7 +18442,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>19</v>
@@ -18479,7 +18479,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>19</v>
@@ -18516,7 +18516,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>19</v>
@@ -18553,7 +18553,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>19</v>
@@ -18590,7 +18590,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>19</v>
@@ -18627,7 +18627,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>19</v>
@@ -18664,7 +18664,7 @@
         <v>38</v>
       </c>
       <c r="G46" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>19</v>
@@ -18701,7 +18701,7 @@
         <v>38</v>
       </c>
       <c r="G47" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>19</v>
@@ -18738,7 +18738,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>19</v>
@@ -18775,7 +18775,7 @@
         <v>38</v>
       </c>
       <c r="G49" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>19</v>
@@ -18812,7 +18812,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>19</v>
@@ -18849,7 +18849,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>19</v>
@@ -18886,7 +18886,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>19</v>
@@ -18923,7 +18923,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>19</v>
@@ -18960,7 +18960,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>19</v>
@@ -18997,7 +18997,7 @@
         <v>18</v>
       </c>
       <c r="G55" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>19</v>
@@ -19034,7 +19034,7 @@
         <v>18</v>
       </c>
       <c r="G56" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>19</v>
@@ -19071,7 +19071,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>19</v>
@@ -19108,7 +19108,7 @@
         <v>18</v>
       </c>
       <c r="G58" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>19</v>
@@ -19145,7 +19145,7 @@
         <v>18</v>
       </c>
       <c r="G59" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>19</v>
@@ -19182,7 +19182,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>19</v>
@@ -19219,7 +19219,7 @@
         <v>18</v>
       </c>
       <c r="G61" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>19</v>
@@ -19256,7 +19256,7 @@
         <v>38</v>
       </c>
       <c r="G62" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>19</v>
@@ -19293,7 +19293,7 @@
         <v>38</v>
       </c>
       <c r="G63" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>19</v>
@@ -19330,7 +19330,7 @@
         <v>18</v>
       </c>
       <c r="G64" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>19</v>
@@ -20516,7 +20516,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>175</v>
@@ -20549,7 +20549,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>175</v>
@@ -20582,7 +20582,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>175</v>
@@ -20617,7 +20617,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>175</v>
@@ -20650,7 +20650,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>175</v>
@@ -20683,7 +20683,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>175</v>
@@ -20716,7 +20716,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>175</v>
@@ -20749,7 +20749,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>175</v>
@@ -20782,7 +20782,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>175</v>
@@ -20815,7 +20815,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>175</v>
@@ -20848,7 +20848,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>175</v>
@@ -20881,7 +20881,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>175</v>
@@ -20914,7 +20914,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>175</v>
@@ -20947,7 +20947,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>175</v>
@@ -20980,7 +20980,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>175</v>
@@ -21013,7 +21013,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>175</v>
@@ -21046,7 +21046,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>175</v>
@@ -21079,7 +21079,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>175</v>
@@ -21112,7 +21112,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>175</v>
@@ -21145,7 +21145,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>175</v>
@@ -21178,7 +21178,7 @@
         <v>38</v>
       </c>
       <c r="G34" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>175</v>
@@ -21211,7 +21211,7 @@
         <v>38</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>175</v>
@@ -21244,7 +21244,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>175</v>
@@ -21277,7 +21277,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>175</v>
@@ -21310,7 +21310,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>175</v>
@@ -21343,7 +21343,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>175</v>
@@ -21376,7 +21376,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>175</v>
@@ -21411,7 +21411,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>175</v>
@@ -21446,7 +21446,7 @@
         <v>38</v>
       </c>
       <c r="G42" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>175</v>
@@ -21481,7 +21481,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>175</v>
@@ -21516,7 +21516,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>175</v>
@@ -21551,7 +21551,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>175</v>
@@ -23020,7 +23020,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>200</v>
@@ -23053,7 +23053,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>200</v>
@@ -23086,7 +23086,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>200</v>
@@ -23121,7 +23121,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>200</v>
@@ -24968,7 +24968,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>262</v>
@@ -25003,7 +25003,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>262</v>
@@ -26878,7 +26878,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>216</v>
@@ -26913,7 +26913,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>216</v>
@@ -26948,7 +26948,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>216</v>
@@ -26985,7 +26985,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>216</v>
@@ -27020,7 +27020,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="48" t="s">
         <v>216</v>
@@ -27055,7 +27055,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>216</v>
@@ -27090,7 +27090,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>216</v>
@@ -27125,7 +27125,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>216</v>
@@ -27160,7 +27160,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>216</v>
@@ -27195,7 +27195,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>216</v>
@@ -27230,7 +27230,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>216</v>
@@ -27265,7 +27265,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>216</v>
@@ -27300,7 +27300,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>216</v>
@@ -27335,7 +27335,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>216</v>
@@ -27368,7 +27368,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>216</v>
@@ -27401,7 +27401,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>216</v>
@@ -27436,7 +27436,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>216</v>
@@ -27471,7 +27471,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>216</v>
@@ -27506,7 +27506,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>216</v>
@@ -27539,7 +27539,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H33" s="49" t="s">
         <v>216</v>
@@ -27572,7 +27572,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>216</v>
@@ -27605,7 +27605,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>216</v>
@@ -27638,7 +27638,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H36" s="49" t="s">
         <v>216</v>
@@ -29236,7 +29236,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>261</v>
@@ -29269,7 +29269,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>261</v>
@@ -29302,7 +29302,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>261</v>
@@ -29337,7 +29337,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>261</v>
@@ -29370,7 +29370,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>261</v>
@@ -29403,7 +29403,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>261</v>
@@ -29436,7 +29436,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>261</v>
@@ -29469,7 +29469,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>261</v>
@@ -29502,7 +29502,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>261</v>
@@ -31284,7 +31284,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>19</v>
@@ -31319,7 +31319,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>19</v>
@@ -31354,7 +31354,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>19</v>
@@ -31391,7 +31391,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>19</v>
@@ -31426,7 +31426,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>19</v>
@@ -31461,7 +31461,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>19</v>
@@ -31496,7 +31496,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>19</v>
@@ -31531,7 +31531,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>19</v>
@@ -31566,7 +31566,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>19</v>
@@ -31601,7 +31601,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>19</v>
@@ -31636,7 +31636,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>19</v>
@@ -31671,7 +31671,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>19</v>
@@ -31706,7 +31706,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>19</v>
@@ -31741,7 +31741,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>19</v>
@@ -31776,7 +31776,7 @@
         <v>38</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>19</v>
@@ -31811,7 +31811,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>19</v>
